--- a/data/baiana/Indicadores de mortalidade por DCNT - TME diabete melito por Sexo segundo Regiao de Saude 2021.xlsx
+++ b/data/baiana/Indicadores de mortalidade por DCNT - TME diabete melito por Sexo segundo Regiao de Saude 2021.xlsx
@@ -1,21 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Downloads\Dados\geral\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Desktop\git\cienciaDeDados\data\baiana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7A7021A-4ED2-4C1D-BDC0-8D607DB92963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2531A8-44B4-4DDA-986F-CF48A5DFA34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores de mortalidade por " sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">'Indicadores de mortalidade por '!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Indicadores de mortalidade por '!$B$1</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">'Indicadores de mortalidade por '!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'Indicadores de mortalidade por '!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'Indicadores de mortalidade por '!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">'Indicadores de mortalidade por '!$B$1</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">'Indicadores de mortalidade por '!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">'Indicadores de mortalidade por '!$C$1</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">'Indicadores de mortalidade por '!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">'Indicadores de mortalidade por '!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">'Indicadores de mortalidade por '!$B$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -26,9 +52,6 @@
   </si>
   <si>
     <t xml:space="preserve">Masculino </t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Regiao de Saude</t>
@@ -63,11 +86,14 @@
   <si>
     <t>Tota</t>
   </si>
+  <si>
+    <t>Média</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -603,6 +629,1168 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Indicadores de mortalidade por '!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feminino  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Indicadores de mortalidade por '!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Baia da Ilha Grande</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baixada Litoranea</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Centro-Sul</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medio Paraiba</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Metropolitana I</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Metropolitana II</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Noroeste</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Norte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serrana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Indicadores de mortalidade por '!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CAB5-4EC0-9616-5835F37AE31C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Indicadores de mortalidade por '!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Masculino </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Indicadores de mortalidade por '!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Baia da Ilha Grande</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baixada Litoranea</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Centro-Sul</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medio Paraiba</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Metropolitana I</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Metropolitana II</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Noroeste</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Norte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serrana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Indicadores de mortalidade por '!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CAB5-4EC0-9616-5835F37AE31C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1137790736"/>
+        <c:axId val="1137792816"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Indicadores de mortalidade por '!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Indicadores de mortalidade por '!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Baia da Ilha Grande</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baixada Litoranea</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Centro-Sul</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Medio Paraiba</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Metropolitana I</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Metropolitana II</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Noroeste</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Norte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Serrana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Indicadores de mortalidade por '!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>34.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.849999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CAB5-4EC0-9616-5835F37AE31C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1137790736"/>
+        <c:axId val="1137792816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1137790736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1137792816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1137792816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1137790736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7942C5-77AF-430D-989C-178E9FC308DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -901,11 +2089,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +2106,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -927,12 +2115,12 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>35.1</v>
@@ -941,12 +2129,13 @@
         <v>33.200000000000003</v>
       </c>
       <c r="D2">
-        <v>34.1</v>
+        <f>AVERAGE(B2:C2)</f>
+        <v>34.150000000000006</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>41.3</v>
@@ -955,12 +2144,13 @@
         <v>43.1</v>
       </c>
       <c r="D3">
+        <f t="shared" ref="D3:D11" si="0">AVERAGE(B3:C3)</f>
         <v>42.2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>46.2</v>
@@ -969,12 +2159,13 @@
         <v>48</v>
       </c>
       <c r="D4">
+        <f t="shared" si="0"/>
         <v>47.1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>43.1</v>
@@ -983,12 +2174,13 @@
         <v>31.2</v>
       </c>
       <c r="D5">
-        <v>37.4</v>
+        <f t="shared" si="0"/>
+        <v>37.15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>42.3</v>
@@ -997,12 +2189,13 @@
         <v>38.9</v>
       </c>
       <c r="D6">
-        <v>40.700000000000003</v>
+        <f t="shared" si="0"/>
+        <v>40.599999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>40.6</v>
@@ -1011,12 +2204,13 @@
         <v>40</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
         <v>40.299999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>58.5</v>
@@ -1025,12 +2219,13 @@
         <v>44.2</v>
       </c>
       <c r="D8">
-        <v>51.5</v>
+        <f t="shared" si="0"/>
+        <v>51.35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>40.799999999999997</v>
@@ -1039,12 +2234,13 @@
         <v>40.9</v>
       </c>
       <c r="D9">
-        <v>40.799999999999997</v>
+        <f t="shared" si="0"/>
+        <v>40.849999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>56.9</v>
@@ -1053,12 +2249,13 @@
         <v>44.8</v>
       </c>
       <c r="D10">
-        <v>51.1</v>
+        <f t="shared" si="0"/>
+        <v>50.849999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>43.1</v>
@@ -1067,10 +2264,26 @@
         <v>39.5</v>
       </c>
       <c r="D11">
-        <v>41.4</v>
+        <f t="shared" si="0"/>
+        <v>41.3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F17A66-A75B-40DD-AD84-99AB9AC2D472}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>